--- a/Experimentos/ACO_1.xlsx
+++ b/Experimentos/ACO_1.xlsx
@@ -40,13 +40,13 @@
     <t>ACO</t>
   </si>
   <si>
-    <t>20:22:09.594646</t>
-  </si>
-  <si>
-    <t>20:22:18.715377</t>
-  </si>
-  <si>
-    <t>0:00:09.120731</t>
+    <t>22:36:14.189518</t>
+  </si>
+  <si>
+    <t>22:36:17.163608</t>
+  </si>
+  <si>
+    <t>0:00:02.974090</t>
   </si>
   <si>
     <t xml:space="preserve">Ejecución:   </t>
@@ -55,16 +55,16 @@
     <t xml:space="preserve">  Mejor_Alternativa</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A4</t>
   </si>
   <si>
     <t>C1</t>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
